--- a/SharedAccountDashboard.xlsx
+++ b/SharedAccountDashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmzo/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C717A-3553-7D4F-BBD7-8ECCC2FA743E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80706F41-D109-3541-8495-5224B308E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{1841EBA3-633C-0749-9630-EC233FDE1BBE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SETTINGS" sheetId="4" r:id="rId1"/>
     <sheet name="Tracking Sheet" sheetId="3" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="6" r:id="rId3"/>
-    <sheet name="CALC" sheetId="5" r:id="rId4"/>
+    <sheet name="CALC" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -961,7 +961,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="22">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1100,306 +1100,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF475C"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF475C"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF475C"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF475C"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA5A5A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA5A5A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA5A5A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA5A5A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode="mm/yyyy"/>
     </dxf>
     <dxf>
@@ -1483,12 +1183,12 @@
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Name Input" pivot="0" count="0" xr9:uid="{5C1670DC-B0A3-B640-8ED3-2A2B54AC4537}"/>
     <tableStyle name="Name Table" pivot="0" count="2" xr9:uid="{D9F472BC-EE3E-2845-A993-5B7BD44EE360}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
     </tableStyle>
     <tableStyle name="Tracking Table" pivot="0" count="2" xr9:uid="{73BA010D-09E2-B249-ADB9-7C0C06CB02D8}">
-      <tableStyleElement type="headerRow" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5962,21 +5662,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{980D1A79-8857-5741-913D-6C07EF4F26B5}" name="tracking_table" displayName="tracking_table" ref="C11:I53" totalsRowShown="0" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{980D1A79-8857-5741-913D-6C07EF4F26B5}" name="tracking_table" displayName="tracking_table" ref="C11:I53" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="C11:I53" xr:uid="{980D1A79-8857-5741-913D-6C07EF4F26B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:I51">
     <sortCondition ref="C11:C51"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D010969E-3B2A-9041-9AE1-B6A4FF39A162}" name="Date" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{D010969E-3B2A-9041-9AE1-B6A4FF39A162}" name="Date" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{D7CD85EF-0104-AE4A-98C7-12636CBEF063}" name="Name"/>
     <tableColumn id="6" xr3:uid="{C39F144D-951B-0C40-948F-6DE9FE77C03B}" name="Deposit/Withdrawal"/>
-    <tableColumn id="3" xr3:uid="{32306B99-E8E4-C74D-B5FE-7D15812C26F2}" name="Amount" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{32306B99-E8E4-C74D-B5FE-7D15812C26F2}" name="Amount" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{E94F8EC1-D81D-4143-8EE7-EFBD641F224A}" name="Comment"/>
-    <tableColumn id="5" xr3:uid="{BD853601-0A06-B148-B345-51289C9A5DFC}" name="Balance" dataDxfId="52">
+    <tableColumn id="5" xr3:uid="{BD853601-0A06-B148-B345-51289C9A5DFC}" name="Balance" dataDxfId="14">
       <calculatedColumnFormula array="1">SUMPRODUCT(tracking_table[Amount],--(tracking_table[Date]&lt;=tracking_table[[#This Row],[Date]]),(tracking_table[Deposit/Withdrawal] ="Withdrawal") *(-1) + (tracking_table[Deposit/Withdrawal]="Deposit"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C3007464-0087-1147-8725-BCE1C6FE2151}" name="Month" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{C3007464-0087-1147-8725-BCE1C6FE2151}" name="Month" dataDxfId="13">
       <calculatedColumnFormula>IF(C12="","",DATE(YEAR(tracking_table[[#This Row],[Date]]),MONTH(tracking_table[[#This Row],[Date]]),1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
